--- a/results/mock_metaphlan.xlsx
+++ b/results/mock_metaphlan.xlsx
@@ -640,7 +640,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>false positive</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -701,7 +701,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>false positive</t>
         </is>
       </c>
       <c r="E13" t="n">
